--- a/resources/testdata.xlsx
+++ b/resources/testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{26E9EC79-A353-4D24-B0C9-584648967038}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{557F7CFA-B6C0-4E9C-A755-F67561B5EB5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14172" windowHeight="4752" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14172" windowHeight="4752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Campaigns" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Product" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F10"/>
+  <oleSize ref="A1:E10"/>
 </workbook>
 </file>
 
@@ -401,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD9166C-9A39-44BD-91A1-DEC45D98E399}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="147" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605ADE0D-85AC-4AFA-A025-F8E911784550}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="147" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
